--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/500nodes(PBFT)/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/500nodes(PBFT)/500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\adversary_power\500nodes(PBFT)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB754C9-555B-4961-B112-3F651160786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA73AA-9E11-4696-9FDB-02254E88A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="15">
   <si>
     <t>Blocksize(KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>LEADER_ID_type</t>
-  </si>
-  <si>
-    <t>没有生成区块</t>
-  </si>
-  <si>
-    <t>Leader is faulty</t>
-  </si>
-  <si>
-    <t>Failed to generate the first block</t>
   </si>
   <si>
     <t>adversary</t>
@@ -1667,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42:W48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28:W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1680,25 +1671,25 @@
         <v>9</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1706,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1724,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>2025</v>
+        <v>2002</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1736,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -1754,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>23739</v>
+        <v>21095</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -1764,7 +1755,7 @@
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>21714</v>
+        <v>19093</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1772,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1790,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>23740</v>
+        <v>23092</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1802,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -1820,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>45231</v>
+        <v>42753</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1830,7 +1821,7 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>21491</v>
+        <v>19661</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1838,65 +1829,65 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>45232</v>
+        <v>42754</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q4" t="s">
         <v>6</v>
       </c>
       <c r="R4">
-        <v>65966</v>
+        <v>62754</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
       </c>
       <c r="T4">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>20734</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1904,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1916,13 +1907,13 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>65967</v>
+        <v>64760</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1934,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -1946,13 +1937,13 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
         <v>6</v>
       </c>
       <c r="R5">
-        <v>82072</v>
+        <v>82863</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1962,7 +1953,7 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>16105</v>
+        <v>18103</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1970,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1982,13 +1973,13 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>82073</v>
+        <v>84866</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -2000,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -2012,13 +2003,13 @@
         <v>3</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
         <v>6</v>
       </c>
       <c r="R6">
-        <v>98583</v>
+        <v>103997</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -2028,7 +2019,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>16510</v>
+        <v>19131</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2036,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2048,13 +2039,13 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>98584</v>
+        <v>106007</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -2066,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -2078,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="s">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>114112</v>
+        <v>125011</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -2094,7 +2085,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>15528</v>
+        <v>19004</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -2102,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>300</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2114,13 +2105,13 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8">
-        <v>114113</v>
+        <v>127019</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2132,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>300</v>
+        <v>479</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
@@ -2144,13 +2135,13 @@
         <v>3</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
         <v>6</v>
       </c>
       <c r="R8">
-        <v>129115</v>
+        <v>144711</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2160,7 +2151,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>15002</v>
+        <v>17692</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2168,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2180,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>129116</v>
+        <v>146717</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2198,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="M9" t="s">
         <v>11</v>
@@ -2210,13 +2201,13 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="s">
         <v>6</v>
       </c>
       <c r="R9">
-        <v>145002</v>
+        <v>163512</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2226,7 +2217,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>15886</v>
+        <v>16795</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -2234,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2246,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10">
-        <v>145003</v>
+        <v>165512</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2264,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
@@ -2276,13 +2267,13 @@
         <v>3</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
         <v>6</v>
       </c>
       <c r="R10">
-        <v>160922</v>
+        <v>183321</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2292,7 +2283,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>15919</v>
+        <v>17809</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2300,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2312,13 +2303,13 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>160923</v>
+        <v>185313</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2330,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
@@ -2342,13 +2333,13 @@
         <v>3</v>
       </c>
       <c r="P11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="s">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>176655</v>
+        <v>203560</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2358,7 +2349,7 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>15732</v>
+        <v>18247</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2366,29 +2357,29 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="L12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>17462.099999999999</v>
+        <v>18553.5</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2396,59 +2387,65 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K13" t="s">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>18657</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>2047</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16647</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2456,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2468,13 +2465,13 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>27000</v>
+        <v>20659</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2486,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
@@ -2498,13 +2495,13 @@
         <v>3</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="s">
         <v>6</v>
       </c>
       <c r="R14">
-        <v>43639</v>
+        <v>36814</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
@@ -2514,7 +2511,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>16639</v>
+        <v>16155</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2522,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2534,13 +2531,13 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15">
-        <v>43640</v>
+        <v>38806</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2552,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
@@ -2564,13 +2561,13 @@
         <v>3</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="s">
         <v>6</v>
       </c>
       <c r="R15">
-        <v>61710</v>
+        <v>54832</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2580,7 +2577,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>18070</v>
+        <v>16026</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2588,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2600,13 +2597,13 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="H16">
-        <v>61711</v>
+        <v>56834</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2618,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
@@ -2630,13 +2627,13 @@
         <v>3</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="s">
         <v>6</v>
       </c>
       <c r="R16">
-        <v>76480</v>
+        <v>71424</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2646,7 +2643,7 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>14769</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2654,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -2666,13 +2663,13 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17">
-        <v>76481</v>
+        <v>73424</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2684,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -2696,13 +2693,13 @@
         <v>3</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s">
         <v>6</v>
       </c>
       <c r="R17">
-        <v>91333</v>
+        <v>88807</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2712,7 +2709,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>14852</v>
+        <v>15383</v>
       </c>
       <c r="W17">
         <v>46238</v>
@@ -2723,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>250</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2735,13 +2732,13 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>91334</v>
+        <v>90817</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2753,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>250</v>
+        <v>408</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -2765,13 +2762,13 @@
         <v>3</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="s">
         <v>6</v>
       </c>
       <c r="R18">
-        <v>105034</v>
+        <v>106507</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2781,7 +2778,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>13700</v>
+        <v>15690</v>
       </c>
       <c r="W18">
         <v>53338</v>
@@ -2792,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -2804,13 +2801,13 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19">
-        <v>105035</v>
+        <v>108500</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2822,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -2834,13 +2831,13 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="s">
         <v>6</v>
       </c>
       <c r="R19">
-        <v>119298</v>
+        <v>123984</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2850,7 +2847,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>14263</v>
+        <v>15484</v>
       </c>
       <c r="W19">
         <v>58888</v>
@@ -2861,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2873,13 +2870,13 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20">
-        <v>119299</v>
+        <v>125977</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2891,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
@@ -2903,13 +2900,13 @@
         <v>3</v>
       </c>
       <c r="P20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="s">
         <v>6</v>
       </c>
       <c r="R20">
-        <v>132973</v>
+        <v>141355</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2919,7 +2916,7 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>13674</v>
+        <v>15378</v>
       </c>
       <c r="W20">
         <v>64496</v>
@@ -2930,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -2942,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>132974</v>
+        <v>143362</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2960,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -2972,13 +2969,13 @@
         <v>3</v>
       </c>
       <c r="P21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="s">
         <v>6</v>
       </c>
       <c r="R21">
-        <v>146426</v>
+        <v>159448</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2988,7 +2985,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>13452</v>
+        <v>16086</v>
       </c>
       <c r="W21">
         <v>69911</v>
@@ -2999,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -3011,13 +3008,13 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>146427</v>
+        <v>161453</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -3029,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -3041,13 +3038,13 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="s">
         <v>6</v>
       </c>
       <c r="R22">
-        <v>160025</v>
+        <v>176446</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -3057,7 +3054,7 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>13598</v>
+        <v>14993</v>
       </c>
       <c r="W22">
         <v>75682</v>
@@ -3068,29 +3065,29 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
         <v>9</v>
       </c>
       <c r="L23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M23" t="s">
         <v>10</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2">
-        <f>AVERAGE(U14:U22)</f>
-        <v>14779.666666666666</v>
+        <f>AVERAGE(U13:U22)</f>
+        <v>15643.2</v>
       </c>
       <c r="W23">
         <v>81580</v>
@@ -3101,59 +3098,65 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1991</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>15974</v>
+      </c>
+      <c r="S24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>2047</v>
       </c>
       <c r="U24">
-        <f>P24-H24</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>13983</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -3161,59 +3164,65 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
       <c r="H25">
-        <v>25001</v>
+        <v>17978</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K25" t="s">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="M25" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>50001</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>32866</v>
+      </c>
+      <c r="S25" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>2047</v>
       </c>
       <c r="U25">
-        <f>P25-H25</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>14888</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -3221,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>466</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3233,13 +3242,13 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
       </c>
       <c r="H26">
-        <v>52001</v>
+        <v>34868</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3251,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>466</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
@@ -3263,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="s">
         <v>6</v>
       </c>
       <c r="R26">
-        <v>66222</v>
+        <v>48479</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3278,8 +3287,8 @@
         <v>2047</v>
       </c>
       <c r="U26">
-        <f>R26-H26</f>
-        <v>14221</v>
+        <f t="shared" si="0"/>
+        <v>13611</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -3287,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -3299,13 +3308,13 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
       </c>
       <c r="H27">
-        <v>66223</v>
+        <v>50477</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3317,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
@@ -3329,13 +3338,13 @@
         <v>3</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="s">
         <v>6</v>
       </c>
       <c r="R27">
-        <v>81209</v>
+        <v>64732</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>14986</v>
+        <v>14255</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -3353,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -3365,13 +3374,13 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
         <v>4</v>
       </c>
       <c r="H28">
-        <v>81210</v>
+        <v>66744</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3383,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="M28" t="s">
         <v>11</v>
@@ -3395,13 +3404,13 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="s">
         <v>6</v>
       </c>
       <c r="R28">
-        <v>93864</v>
+        <v>81411</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3411,7 +3420,11 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>12654</v>
+        <v>14667</v>
+      </c>
+      <c r="W28">
+        <f>U12</f>
+        <v>18553.5</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -3419,65 +3432,69 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
       </c>
       <c r="H29">
-        <v>93865</v>
+        <v>81412</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
       </c>
       <c r="J29">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
         <v>3</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="s">
         <v>6</v>
       </c>
       <c r="R29">
-        <v>106131</v>
+        <v>101412</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
       </c>
       <c r="T29">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>12266</v>
+        <v>20000</v>
+      </c>
+      <c r="W29">
+        <f>U23</f>
+        <v>15643.2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -3485,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -3497,13 +3514,13 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
       </c>
       <c r="H30">
-        <v>106132</v>
+        <v>103402</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3515,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
@@ -3527,13 +3544,13 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="s">
         <v>6</v>
       </c>
       <c r="R30">
-        <v>118344</v>
+        <v>117247</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3543,7 +3560,11 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>12212</v>
+        <v>13845</v>
+      </c>
+      <c r="W30">
+        <f>U34</f>
+        <v>14830</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -3551,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -3563,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
         <v>4</v>
       </c>
       <c r="H31">
-        <v>118345</v>
+        <v>119239</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3581,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
@@ -3593,13 +3614,13 @@
         <v>3</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="s">
         <v>6</v>
       </c>
       <c r="R31">
-        <v>131081</v>
+        <v>133262</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
@@ -3609,7 +3630,11 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>12736</v>
+        <v>14023</v>
+      </c>
+      <c r="W31">
+        <f>U45</f>
+        <v>14065.5</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -3617,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -3629,13 +3654,13 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
       </c>
       <c r="H32">
-        <v>131082</v>
+        <v>135274</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3647,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
@@ -3659,13 +3684,13 @@
         <v>3</v>
       </c>
       <c r="P32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q32" t="s">
         <v>6</v>
       </c>
       <c r="R32">
-        <v>142874</v>
+        <v>149752</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3675,7 +3700,11 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>11792</v>
+        <v>14478</v>
+      </c>
+      <c r="W32">
+        <f>U56</f>
+        <v>13388.2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -3683,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>450</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -3695,13 +3724,13 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
         <v>4</v>
       </c>
       <c r="H33">
-        <v>142875</v>
+        <v>151755</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3713,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>450</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
@@ -3725,13 +3754,13 @@
         <v>3</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q33" t="s">
         <v>6</v>
       </c>
       <c r="R33">
-        <v>155594</v>
+        <v>166305</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3741,7 +3770,11 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>12719</v>
+        <v>14550</v>
+      </c>
+      <c r="W33">
+        <f>U67</f>
+        <v>12248.8</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -3749,29 +3782,29 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
         <v>9</v>
       </c>
       <c r="L34">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="M34" t="s">
         <v>10</v>
       </c>
       <c r="N34">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>15358.6</v>
+        <v>14830</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
@@ -3779,59 +3812,65 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>4</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K35" t="s">
         <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M35" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>14512</v>
+      </c>
+      <c r="S35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>2047</v>
       </c>
       <c r="U35">
-        <f>P35-H35</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>12509</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -3839,59 +3878,65 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
       <c r="G36" t="s">
         <v>4</v>
       </c>
       <c r="H36">
-        <v>25001</v>
+        <v>16520</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K36" t="s">
         <v>2</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="M36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>50001</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>29114</v>
+      </c>
+      <c r="S36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36">
+        <v>2047</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36:U37" si="1">P36-H36</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>12594</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -3899,59 +3944,65 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
+      <c r="F37">
+        <v>2</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
       </c>
       <c r="H37">
-        <v>50002</v>
+        <v>31113</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K37" t="s">
         <v>2</v>
       </c>
       <c r="L37">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="M37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>75002</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>43383</v>
+      </c>
+      <c r="S37" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <v>2047</v>
       </c>
       <c r="U37">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>12270</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -3959,65 +4010,65 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
       </c>
       <c r="H38">
-        <v>77008</v>
+        <v>43384</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
       </c>
       <c r="J38">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
       </c>
       <c r="L38">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s">
         <v>11</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>3</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q38" t="s">
         <v>6</v>
       </c>
       <c r="R38">
-        <v>89482</v>
+        <v>63384</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
       </c>
       <c r="T38">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>12474</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
@@ -4025,65 +4076,65 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>63385</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>471</v>
+      </c>
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <v>89483</v>
-      </c>
-      <c r="I39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39">
-        <v>2047</v>
-      </c>
-      <c r="K39" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>200</v>
-      </c>
-      <c r="M39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="O39" t="s">
         <v>3</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q39" t="s">
         <v>6</v>
       </c>
       <c r="R39">
-        <v>102100</v>
+        <v>83385</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
       </c>
       <c r="T39">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>12617</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -4091,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -4103,13 +4154,13 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
       </c>
       <c r="H40">
-        <v>102101</v>
+        <v>85393</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4121,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
@@ -4133,13 +4184,13 @@
         <v>3</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="s">
         <v>6</v>
       </c>
       <c r="R40">
-        <v>113153</v>
+        <v>97907</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4149,7 +4200,7 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>11052</v>
+        <v>12514</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -4157,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -4169,13 +4220,13 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
       </c>
       <c r="H41">
-        <v>113154</v>
+        <v>99906</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4187,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="M41" t="s">
         <v>11</v>
@@ -4199,13 +4250,13 @@
         <v>3</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="s">
         <v>6</v>
       </c>
       <c r="R41">
-        <v>125335</v>
+        <v>112391</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
@@ -4215,7 +4266,7 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>12181</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -4223,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -4235,13 +4286,13 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
         <v>4</v>
       </c>
       <c r="H42">
-        <v>125336</v>
+        <v>114392</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4253,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
@@ -4265,13 +4316,13 @@
         <v>3</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="s">
         <v>6</v>
       </c>
       <c r="R42">
-        <v>136310</v>
+        <v>127358</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4281,10 +4332,7 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>10974</v>
-      </c>
-      <c r="W42">
-        <v>17462.099999999999</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -4292,7 +4340,7 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -4304,13 +4352,13 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
       </c>
       <c r="H43">
-        <v>136311</v>
+        <v>129358</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4322,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
@@ -4334,13 +4382,13 @@
         <v>3</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="s">
         <v>6</v>
       </c>
       <c r="R43">
-        <v>147455</v>
+        <v>142051</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4350,10 +4398,7 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>11144</v>
-      </c>
-      <c r="W43">
-        <v>14779.666666666666</v>
+        <v>12693</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -4361,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -4373,13 +4418,13 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
       </c>
       <c r="H44">
-        <v>147456</v>
+        <v>144046</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4391,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
@@ -4403,13 +4448,13 @@
         <v>3</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q44" t="s">
         <v>6</v>
       </c>
       <c r="R44">
-        <v>158757</v>
+        <v>156670</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4419,10 +4464,7 @@
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>11301</v>
-      </c>
-      <c r="W44">
-        <v>15358.6</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -4430,32 +4472,29 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
         <v>9</v>
       </c>
       <c r="L45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M45" t="s">
         <v>10</v>
       </c>
       <c r="N45">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>15674.3</v>
-      </c>
-      <c r="W45">
-        <v>15674.3</v>
+        <v>14065.5</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -4463,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -4474,8 +4513,8 @@
       <c r="E46" t="s">
         <v>3</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
+      <c r="F46">
+        <v>-1</v>
       </c>
       <c r="G46" t="s">
         <v>4</v>
@@ -4493,32 +4532,35 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>25000</v>
+        <v>-1</v>
       </c>
       <c r="Q46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R46">
+        <v>20000</v>
+      </c>
+      <c r="S46" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
-        <f>P46-H46</f>
-        <v>25000</v>
-      </c>
-      <c r="W46">
-        <v>16214.7</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -4526,62 +4568,65 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>4</v>
       </c>
       <c r="H47">
-        <v>25001</v>
+        <v>21999</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K47" t="s">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="M47" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>50001</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>33487</v>
+      </c>
+      <c r="S47" t="s">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>2047</v>
       </c>
       <c r="U47">
-        <f t="shared" ref="U47:U49" si="2">P47-H47</f>
-        <v>25000</v>
-      </c>
-      <c r="W47">
-        <v>17236.7</v>
+        <f t="shared" si="0"/>
+        <v>11488</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -4589,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -4600,14 +4645,14 @@
       <c r="E48" t="s">
         <v>3</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
+      <c r="F48">
+        <v>-1</v>
       </c>
       <c r="G48" t="s">
         <v>4</v>
       </c>
       <c r="H48">
-        <v>50002</v>
+        <v>33488</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4619,32 +4664,35 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>75002</v>
+        <v>-1</v>
       </c>
       <c r="Q48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R48">
+        <v>53488</v>
+      </c>
+      <c r="S48" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="W48">
-        <v>18505.099999999999</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -4652,59 +4700,65 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
       <c r="G49" t="s">
         <v>4</v>
       </c>
       <c r="H49">
-        <v>75003</v>
+        <v>55490</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K49" t="s">
         <v>2</v>
       </c>
       <c r="L49">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>100003</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>67771</v>
+      </c>
+      <c r="S49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>2047</v>
       </c>
       <c r="U49">
-        <f t="shared" si="2"/>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>12281</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -4712,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>200</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -4724,13 +4778,13 @@
         <v>3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
         <v>4</v>
       </c>
       <c r="H50">
-        <v>102003</v>
+        <v>69769</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4742,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>200</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s">
         <v>11</v>
@@ -4754,13 +4808,13 @@
         <v>3</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="s">
         <v>6</v>
       </c>
       <c r="R50">
-        <v>113009</v>
+        <v>81579</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
@@ -4770,7 +4824,7 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>11006</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -4778,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>250</v>
+        <v>455</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -4790,13 +4844,13 @@
         <v>3</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>4</v>
       </c>
       <c r="H51">
-        <v>113010</v>
+        <v>83568</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4808,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>250</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s">
         <v>11</v>
@@ -4820,13 +4874,13 @@
         <v>3</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="s">
         <v>6</v>
       </c>
       <c r="R51">
-        <v>123768</v>
+        <v>95308</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
@@ -4836,7 +4890,7 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>10758</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -4844,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -4856,13 +4910,13 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>4</v>
       </c>
       <c r="H52">
-        <v>123769</v>
+        <v>97302</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4874,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="M52" t="s">
         <v>11</v>
@@ -4886,13 +4940,13 @@
         <v>3</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="s">
         <v>6</v>
       </c>
       <c r="R52">
-        <v>133825</v>
+        <v>108525</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4902,7 +4956,7 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>10056</v>
+        <v>11223</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -4910,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -4922,13 +4976,13 @@
         <v>3</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
         <v>4</v>
       </c>
       <c r="H53">
-        <v>133826</v>
+        <v>110539</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -4940,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s">
         <v>11</v>
@@ -4952,13 +5006,13 @@
         <v>3</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="s">
         <v>6</v>
       </c>
       <c r="R53">
-        <v>143940</v>
+        <v>122578</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
@@ -4968,7 +5022,7 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>10114</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -4976,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -4988,13 +5042,13 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
       </c>
       <c r="H54">
-        <v>143941</v>
+        <v>124572</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5006,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
@@ -5018,13 +5072,13 @@
         <v>3</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q54" t="s">
         <v>6</v>
       </c>
       <c r="R54">
-        <v>153951</v>
+        <v>136120</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5034,7 +5088,7 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>10010</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -5042,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -5054,13 +5108,13 @@
         <v>3</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
         <v>4</v>
       </c>
       <c r="H55">
-        <v>153952</v>
+        <v>138120</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5072,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
@@ -5084,13 +5138,13 @@
         <v>3</v>
       </c>
       <c r="P55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q55" t="s">
         <v>6</v>
       </c>
       <c r="R55">
-        <v>164155</v>
+        <v>149873</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5100,7 +5154,7 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>10203</v>
+        <v>11753</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -5108,29 +5162,29 @@
         <v>9</v>
       </c>
       <c r="B56">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K56" t="s">
         <v>9</v>
       </c>
       <c r="L56">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="M56" t="s">
         <v>10</v>
       </c>
       <c r="N56">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>16214.7</v>
+        <v>13388.2</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -5138,59 +5192,65 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57" t="s">
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>13199</v>
+      </c>
+      <c r="S57" t="s">
+        <v>7</v>
+      </c>
+      <c r="T57">
+        <v>2047</v>
       </c>
       <c r="U57">
-        <f>P57-H57</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>11196</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -5198,59 +5258,65 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
       <c r="G58" t="s">
         <v>4</v>
       </c>
       <c r="H58">
-        <v>25001</v>
+        <v>15204</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K58" t="s">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="M58" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>50001</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>26709</v>
+      </c>
+      <c r="S58" t="s">
+        <v>7</v>
+      </c>
+      <c r="T58">
+        <v>2047</v>
       </c>
       <c r="U58">
-        <f t="shared" ref="U58:U61" si="3">P58-H58</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>11505</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -5258,59 +5324,65 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
       </c>
-      <c r="F59" t="s">
-        <v>12</v>
+      <c r="F59">
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>4</v>
       </c>
       <c r="H59">
-        <v>50002</v>
+        <v>28715</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K59" t="s">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="M59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>75002</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>40236</v>
+      </c>
+      <c r="S59" t="s">
+        <v>7</v>
+      </c>
+      <c r="T59">
+        <v>2047</v>
       </c>
       <c r="U59">
-        <f t="shared" si="3"/>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>11521</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -5318,59 +5390,65 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
+      <c r="F60">
+        <v>3</v>
       </c>
       <c r="G60" t="s">
         <v>4</v>
       </c>
       <c r="H60">
-        <v>75003</v>
+        <v>42230</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K60" t="s">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="M60" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>100003</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>53777</v>
+      </c>
+      <c r="S60" t="s">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>2047</v>
       </c>
       <c r="U60">
-        <f t="shared" si="3"/>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>11547</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -5378,59 +5456,65 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
+      <c r="F61">
+        <v>4</v>
       </c>
       <c r="G61" t="s">
         <v>4</v>
       </c>
       <c r="H61">
-        <v>100004</v>
+        <v>55785</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="M61" t="s">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>125004</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>66715</v>
+      </c>
+      <c r="S61" t="s">
+        <v>7</v>
+      </c>
+      <c r="T61">
+        <v>2047</v>
       </c>
       <c r="U61">
-        <f t="shared" si="3"/>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>10930</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -5438,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -5450,13 +5534,13 @@
         <v>3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
         <v>4</v>
       </c>
       <c r="H62">
-        <v>126995</v>
+        <v>68719</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5468,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
@@ -5480,13 +5564,13 @@
         <v>3</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="s">
         <v>6</v>
       </c>
       <c r="R62">
-        <v>136896</v>
+        <v>80708</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5496,7 +5580,7 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>9901</v>
+        <v>11989</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -5504,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5516,13 +5600,13 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G63" t="s">
         <v>4</v>
       </c>
       <c r="H63">
-        <v>136897</v>
+        <v>82698</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5534,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
@@ -5546,13 +5630,13 @@
         <v>3</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="s">
         <v>6</v>
       </c>
       <c r="R63">
-        <v>146359</v>
+        <v>94072</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -5562,7 +5646,7 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>9462</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -5570,65 +5654,65 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G64" t="s">
         <v>4</v>
       </c>
       <c r="H64">
-        <v>146360</v>
+        <v>94073</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>2</v>
       </c>
       <c r="L64">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>3</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q64" t="s">
         <v>6</v>
       </c>
       <c r="R64">
-        <v>155810</v>
+        <v>114073</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
       </c>
       <c r="T64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>9450</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -5636,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -5648,13 +5732,13 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
         <v>4</v>
       </c>
       <c r="H65">
-        <v>155811</v>
+        <v>116077</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5666,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
@@ -5678,13 +5762,13 @@
         <v>3</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q65" t="s">
         <v>6</v>
       </c>
       <c r="R65">
-        <v>164697</v>
+        <v>127359</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5694,7 +5778,7 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>8886</v>
+        <v>11282</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -5702,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -5714,13 +5798,13 @@
         <v>3</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
         <v>4</v>
       </c>
       <c r="H66">
-        <v>164698</v>
+        <v>129359</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5732,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
@@ -5744,13 +5828,13 @@
         <v>3</v>
       </c>
       <c r="P66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q66" t="s">
         <v>6</v>
       </c>
       <c r="R66">
-        <v>174366</v>
+        <v>140503</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5760,1282 +5844,13 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>9668</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67">
-        <v>0.3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>150</v>
-      </c>
-      <c r="K67" t="s">
-        <v>9</v>
-      </c>
-      <c r="L67">
-        <v>0.3</v>
-      </c>
-      <c r="M67" t="s">
-        <v>10</v>
-      </c>
-      <c r="N67">
-        <v>150</v>
-      </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>17236.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
-        <v>3</v>
-      </c>
-      <c r="N68" t="s">
-        <v>13</v>
-      </c>
-      <c r="O68" t="s">
-        <v>6</v>
-      </c>
-      <c r="P68">
-        <v>25000</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>7</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <f>P68-H68</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69">
-        <v>50</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <v>25001</v>
-      </c>
-      <c r="I69" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>2</v>
-      </c>
-      <c r="L69">
-        <v>50</v>
-      </c>
-      <c r="M69" t="s">
-        <v>3</v>
-      </c>
-      <c r="N69" t="s">
-        <v>13</v>
-      </c>
-      <c r="O69" t="s">
-        <v>6</v>
-      </c>
-      <c r="P69">
-        <v>50001</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>7</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <f t="shared" ref="U69:U73" si="4">P69-H69</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70">
-        <v>100</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70">
-        <v>50002</v>
-      </c>
-      <c r="I70" t="s">
-        <v>5</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>2</v>
-      </c>
-      <c r="L70">
-        <v>100</v>
-      </c>
-      <c r="M70" t="s">
-        <v>3</v>
-      </c>
-      <c r="N70" t="s">
-        <v>13</v>
-      </c>
-      <c r="O70" t="s">
-        <v>6</v>
-      </c>
-      <c r="P70">
-        <v>75002</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>7</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71">
-        <v>75003</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>150</v>
-      </c>
-      <c r="M71" t="s">
-        <v>3</v>
-      </c>
-      <c r="N71" t="s">
-        <v>13</v>
-      </c>
-      <c r="O71" t="s">
-        <v>6</v>
-      </c>
-      <c r="P71">
-        <v>100003</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>7</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>200</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72">
-        <v>100004</v>
-      </c>
-      <c r="I72" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>2</v>
-      </c>
-      <c r="L72">
-        <v>200</v>
-      </c>
-      <c r="M72" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" t="s">
-        <v>13</v>
-      </c>
-      <c r="O72" t="s">
-        <v>6</v>
-      </c>
-      <c r="P72">
-        <v>125004</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>7</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>250</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73">
-        <v>125005</v>
-      </c>
-      <c r="I73" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>2</v>
-      </c>
-      <c r="L73">
-        <v>250</v>
-      </c>
-      <c r="M73" t="s">
-        <v>3</v>
-      </c>
-      <c r="N73" t="s">
-        <v>13</v>
-      </c>
-      <c r="O73" t="s">
-        <v>6</v>
-      </c>
-      <c r="P73">
-        <v>150005</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>7</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>300</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>3</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74">
-        <v>151996</v>
-      </c>
-      <c r="I74" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74">
-        <v>2047</v>
-      </c>
-      <c r="K74" t="s">
-        <v>2</v>
-      </c>
-      <c r="L74">
-        <v>300</v>
-      </c>
-      <c r="M74" t="s">
-        <v>11</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>3</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>6</v>
-      </c>
-      <c r="R74">
-        <v>160955</v>
-      </c>
-      <c r="S74" t="s">
-        <v>7</v>
-      </c>
-      <c r="T74">
-        <v>2047</v>
-      </c>
-      <c r="U74">
-        <f t="shared" ref="U67:U88" si="5">R74-H74</f>
-        <v>8959</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75">
-        <v>350</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75">
-        <v>160956</v>
-      </c>
-      <c r="I75" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75">
-        <v>2047</v>
-      </c>
-      <c r="K75" t="s">
-        <v>2</v>
-      </c>
-      <c r="L75">
-        <v>350</v>
-      </c>
-      <c r="M75" t="s">
-        <v>11</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>3</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>6</v>
-      </c>
-      <c r="R75">
-        <v>170088</v>
-      </c>
-      <c r="S75" t="s">
-        <v>7</v>
-      </c>
-      <c r="T75">
-        <v>2047</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="5"/>
-        <v>9132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>400</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76">
-        <v>170089</v>
-      </c>
-      <c r="I76" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76">
-        <v>2047</v>
-      </c>
-      <c r="K76" t="s">
-        <v>2</v>
-      </c>
-      <c r="L76">
-        <v>400</v>
-      </c>
-      <c r="M76" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>2</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>6</v>
-      </c>
-      <c r="R76">
-        <v>178549</v>
-      </c>
-      <c r="S76" t="s">
-        <v>7</v>
-      </c>
-      <c r="T76">
-        <v>2047</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="5"/>
-        <v>8460</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77">
-        <v>450</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77">
-        <v>178550</v>
-      </c>
-      <c r="I77" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77">
-        <v>2047</v>
-      </c>
-      <c r="K77" t="s">
-        <v>2</v>
-      </c>
-      <c r="L77">
-        <v>450</v>
-      </c>
-      <c r="M77" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>6</v>
-      </c>
-      <c r="R77">
-        <v>187050</v>
-      </c>
-      <c r="S77" t="s">
-        <v>7</v>
-      </c>
-      <c r="T77">
-        <v>2047</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="5"/>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78">
-        <v>0.35</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>175</v>
-      </c>
-      <c r="K78" t="s">
-        <v>9</v>
-      </c>
-      <c r="L78">
-        <v>0.35</v>
-      </c>
-      <c r="M78" t="s">
-        <v>10</v>
-      </c>
-      <c r="N78">
-        <v>175</v>
-      </c>
-      <c r="U78" s="2">
-        <f>AVERAGE(U68:U77)</f>
-        <v>18505.099999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>2</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" t="s">
-        <v>3</v>
-      </c>
-      <c r="N79" t="s">
-        <v>13</v>
-      </c>
-      <c r="O79" t="s">
-        <v>6</v>
-      </c>
-      <c r="P79">
-        <v>25000</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>7</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80">
-        <v>50</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80">
-        <v>25001</v>
-      </c>
-      <c r="I80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>2</v>
-      </c>
-      <c r="L80">
-        <v>50</v>
-      </c>
-      <c r="M80" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" t="s">
-        <v>13</v>
-      </c>
-      <c r="O80" t="s">
-        <v>6</v>
-      </c>
-      <c r="P80">
-        <v>50001</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>7</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="5"/>
-        <v>-25001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81">
-        <v>100</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <v>50002</v>
-      </c>
-      <c r="I81" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>2</v>
-      </c>
-      <c r="L81">
-        <v>100</v>
-      </c>
-      <c r="M81" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" t="s">
-        <v>13</v>
-      </c>
-      <c r="O81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P81">
-        <v>75002</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>7</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="5"/>
-        <v>-50002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>150</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82">
-        <v>75003</v>
-      </c>
-      <c r="I82" t="s">
-        <v>5</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>150</v>
-      </c>
-      <c r="M82" t="s">
-        <v>3</v>
-      </c>
-      <c r="N82" t="s">
-        <v>13</v>
-      </c>
-      <c r="O82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>100003</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>7</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="5"/>
-        <v>-75003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>200</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>100004</v>
-      </c>
-      <c r="I83" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>200</v>
-      </c>
-      <c r="M83" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" t="s">
-        <v>13</v>
-      </c>
-      <c r="O83" t="s">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>125004</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>7</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="5"/>
-        <v>-100004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>250</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>4</v>
-      </c>
-      <c r="H84">
-        <v>125005</v>
-      </c>
-      <c r="I84" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>2</v>
-      </c>
-      <c r="L84">
-        <v>250</v>
-      </c>
-      <c r="M84" t="s">
-        <v>3</v>
-      </c>
-      <c r="N84" t="s">
-        <v>13</v>
-      </c>
-      <c r="O84" t="s">
-        <v>6</v>
-      </c>
-      <c r="P84">
-        <v>150005</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>7</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="5"/>
-        <v>-125005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85">
-        <v>300</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>150006</v>
-      </c>
-      <c r="I85" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>2</v>
-      </c>
-      <c r="L85">
-        <v>300</v>
-      </c>
-      <c r="M85" t="s">
-        <v>3</v>
-      </c>
-      <c r="N85" t="s">
-        <v>13</v>
-      </c>
-      <c r="O85" t="s">
-        <v>6</v>
-      </c>
-      <c r="P85">
-        <v>175006</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>7</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="5"/>
-        <v>-150006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86">
-        <v>350</v>
-      </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
-        <v>4</v>
-      </c>
-      <c r="H86">
-        <v>177003</v>
-      </c>
-      <c r="I86" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86">
-        <v>2047</v>
-      </c>
-      <c r="K86" t="s">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>14</v>
-      </c>
-      <c r="O86" t="s">
-        <v>6</v>
-      </c>
-      <c r="P86">
-        <v>295007</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="5"/>
-        <v>-177003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>400</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>3</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87">
-        <v>295008</v>
-      </c>
-      <c r="I87" t="s">
-        <v>5</v>
-      </c>
-      <c r="J87">
-        <v>2047</v>
-      </c>
-      <c r="K87" t="s">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O87" t="s">
-        <v>6</v>
-      </c>
-      <c r="P87">
-        <v>415008</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="5"/>
-        <v>-295008</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88">
-        <v>450</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88">
-        <v>415009</v>
-      </c>
-      <c r="I88" t="s">
-        <v>5</v>
-      </c>
-      <c r="J88">
-        <v>2047</v>
-      </c>
-      <c r="K88" t="s">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>14</v>
-      </c>
-      <c r="O88" t="s">
-        <v>6</v>
-      </c>
-      <c r="P88">
-        <v>535009</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="5"/>
-        <v>-415009</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U89">
-        <f>AVERAGE(U2:U12)</f>
-        <v>17462.100000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U90">
-        <f>AVERAGE(U2:U12)</f>
-        <v>17462.100000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U91">
-        <f>AVERAGE(U24:U34)</f>
-        <v>15358.6</v>
+        <v>12248.8</v>
       </c>
     </row>
   </sheetData>
@@ -7049,7 +5864,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7061,102 +5876,102 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>17462.099999999999</v>
+        <v>18553.5</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.87310499999999991</v>
+        <v>0.92767500000000003</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>14779.666666666666</v>
+        <v>15643.2</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C12" si="0">B3*50/1000000</f>
-        <v>0.73898333333333321</v>
+        <v>0.78215999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>15358.6</v>
+        <v>14830</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.76793</v>
+        <v>0.74150000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>15674.3</v>
+        <v>14065.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.78371500000000005</v>
+        <v>0.70327499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>16214.7</v>
+        <v>13388.2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.81073499999999998</v>
+        <v>0.66940999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>17236.7</v>
+        <v>12248.8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.86183500000000002</v>
+        <v>0.61243999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>18505.099999999999</v>
+        <v>25000</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.92525499999999994</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B9" s="1">
         <v>25000</v>
@@ -7168,7 +5983,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="B10" s="1">
         <v>25000</v>
@@ -7180,7 +5995,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B11" s="1">
         <v>25000</v>
@@ -7191,9 +6006,6 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0.5</v>
-      </c>
       <c r="B12" s="1">
         <v>25000</v>
       </c>

--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/500nodes(PBFT)/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/500nodes(PBFT)/500.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\adversary_power\500nodes(PBFT)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA73AA-9E11-4696-9FDB-02254E88A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F019FF1D-11B4-4B9D-8E56-8D2FEC4767F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1660,13 +1660,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="G25" workbookViewId="0">
       <selection activeCell="W28" sqref="W28:W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1692,12 +1692,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1715,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>2002</v>
+        <v>2028</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -1745,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>21095</v>
+        <v>22120</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -1755,15 +1755,15 @@
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>19093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>23092</v>
+        <v>24134</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -1811,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>42753</v>
+        <v>43068</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1821,81 +1821,81 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>19661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>481</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>42754</v>
+        <v>45069</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>481</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>6</v>
       </c>
       <c r="R4">
-        <v>62754</v>
+        <v>62564</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>17495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>386</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1907,13 +1907,13 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>64760</v>
+        <v>64567</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1925,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>386</v>
+        <v>153</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -1937,13 +1937,13 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>6</v>
       </c>
       <c r="R5">
-        <v>82863</v>
+        <v>82234</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1953,15 +1953,15 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>18103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>17667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1973,13 +1973,13 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>84866</v>
+        <v>84233</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -2003,13 +2003,13 @@
         <v>3</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
         <v>6</v>
       </c>
       <c r="R6">
-        <v>103997</v>
+        <v>101903</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -2019,15 +2019,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>19131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>17670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2039,13 +2039,13 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>106007</v>
+        <v>103901</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -2069,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>125011</v>
+        <v>121972</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -2085,15 +2085,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>19004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>479</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2105,13 +2105,13 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8">
-        <v>127019</v>
+        <v>123980</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>479</v>
+        <v>306</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
@@ -2135,13 +2135,13 @@
         <v>3</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="s">
         <v>6</v>
       </c>
       <c r="R8">
-        <v>144711</v>
+        <v>142202</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2151,15 +2151,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>17692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2171,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>146717</v>
+        <v>144203</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="M9" t="s">
         <v>11</v>
@@ -2201,13 +2201,13 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="s">
         <v>6</v>
       </c>
       <c r="R9">
-        <v>163512</v>
+        <v>162065</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2217,15 +2217,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>16795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>17862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2237,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10">
-        <v>165512</v>
+        <v>164059</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
@@ -2267,13 +2267,13 @@
         <v>3</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="s">
         <v>6</v>
       </c>
       <c r="R10">
-        <v>183321</v>
+        <v>182193</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2283,15 +2283,15 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>17809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2303,13 +2303,13 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>185313</v>
+        <v>184195</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
@@ -2333,13 +2333,13 @@
         <v>3</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="s">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>203560</v>
+        <v>203278</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2349,10 +2349,10 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>18247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>19083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2379,15 +2379,15 @@
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>18553.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2405,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2417,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>11</v>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>18657</v>
+        <v>20214</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -2445,99 +2445,99 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>16647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>20215</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>20659</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>2047</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14" t="s">
         <v>3</v>
       </c>
       <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>45215</v>
+      </c>
+      <c r="S14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14">
-        <v>36814</v>
-      </c>
-      <c r="S14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>2047</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>16155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>428</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15">
-        <v>38806</v>
+        <v>47207</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>428</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
@@ -2561,13 +2561,13 @@
         <v>3</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="s">
         <v>6</v>
       </c>
       <c r="R15">
-        <v>54832</v>
+        <v>63496</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2577,15 +2577,15 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>16026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>16289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2597,13 +2597,13 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="H16">
-        <v>56834</v>
+        <v>65499</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
@@ -2627,13 +2627,13 @@
         <v>3</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="s">
         <v>6</v>
       </c>
       <c r="R16">
-        <v>71424</v>
+        <v>80855</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2643,15 +2643,15 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>14590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -2663,13 +2663,13 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17">
-        <v>73424</v>
+        <v>82854</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2681,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -2693,13 +2693,13 @@
         <v>3</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="s">
         <v>6</v>
       </c>
       <c r="R17">
-        <v>88807</v>
+        <v>99795</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2709,18 +2709,18 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>15383</v>
+        <v>16941</v>
       </c>
       <c r="W17">
         <v>46238</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>408</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2732,13 +2732,13 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>90817</v>
+        <v>101799</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2750,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>408</v>
+        <v>255</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -2762,13 +2762,13 @@
         <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="s">
         <v>6</v>
       </c>
       <c r="R18">
-        <v>106507</v>
+        <v>117570</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2778,18 +2778,18 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>15690</v>
+        <v>15771</v>
       </c>
       <c r="W18">
         <v>53338</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -2801,13 +2801,13 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19">
-        <v>108500</v>
+        <v>119577</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2819,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -2831,13 +2831,13 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="s">
         <v>6</v>
       </c>
       <c r="R19">
-        <v>123984</v>
+        <v>135744</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2847,18 +2847,18 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>15484</v>
+        <v>16167</v>
       </c>
       <c r="W19">
         <v>58888</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>484</v>
+        <v>357</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2870,13 +2870,13 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20">
-        <v>125977</v>
+        <v>137747</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>484</v>
+        <v>357</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
@@ -2900,13 +2900,13 @@
         <v>3</v>
       </c>
       <c r="P20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q20" t="s">
         <v>6</v>
       </c>
       <c r="R20">
-        <v>141355</v>
+        <v>153752</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2916,18 +2916,18 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>15378</v>
+        <v>16005</v>
       </c>
       <c r="W20">
         <v>64496</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -2939,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>143362</v>
+        <v>155739</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>88</v>
+        <v>408</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -2969,13 +2969,13 @@
         <v>3</v>
       </c>
       <c r="P21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="s">
         <v>6</v>
       </c>
       <c r="R21">
-        <v>159448</v>
+        <v>171320</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2985,18 +2985,18 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>16086</v>
+        <v>15581</v>
       </c>
       <c r="W21">
         <v>69911</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -3008,13 +3008,13 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>161453</v>
+        <v>173320</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -3026,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -3038,13 +3038,13 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q22" t="s">
         <v>6</v>
       </c>
       <c r="R22">
-        <v>176446</v>
+        <v>188661</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -3054,13 +3054,13 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>14993</v>
+        <v>15341</v>
       </c>
       <c r="W22">
         <v>75682</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3087,18 +3087,18 @@
       </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>15643.2</v>
+        <v>17064.5</v>
       </c>
       <c r="W23">
         <v>81580</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>1991</v>
+        <v>2034</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>11</v>
@@ -3146,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>15974</v>
+        <v>16028</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
@@ -3156,15 +3156,15 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>13983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -3182,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>17978</v>
+        <v>18020</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
         <v>11</v>
@@ -3212,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>32866</v>
+        <v>32203</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
@@ -3222,15 +3222,15 @@
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>14888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3248,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>34868</v>
+        <v>34209</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3260,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
@@ -3278,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>48479</v>
+        <v>47700</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3288,15 +3288,15 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>13611</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>50477</v>
+        <v>49697</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
@@ -3344,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>64732</v>
+        <v>64480</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3354,15 +3354,15 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>14255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>460</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -3380,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>66744</v>
+        <v>66467</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3392,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>460</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s">
         <v>11</v>
@@ -3410,7 +3410,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>81411</v>
+        <v>80568</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3420,89 +3420,89 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>14667</v>
+        <v>14101</v>
       </c>
       <c r="W28">
         <f>U12</f>
-        <v>18553.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>18323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
       </c>
       <c r="H29">
-        <v>81412</v>
+        <v>82571</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K29" t="s">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>3</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="s">
         <v>6</v>
       </c>
       <c r="R29">
-        <v>101412</v>
+        <v>95599</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>13028</v>
       </c>
       <c r="W29">
         <f>U23</f>
-        <v>15643.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>17064.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -3514,13 +3514,13 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
       </c>
       <c r="H30">
-        <v>103402</v>
+        <v>97600</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3532,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
@@ -3544,13 +3544,13 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="s">
         <v>6</v>
       </c>
       <c r="R30">
-        <v>117247</v>
+        <v>111275</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3560,19 +3560,19 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>13845</v>
+        <v>13675</v>
       </c>
       <c r="W30">
         <f>U34</f>
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13969.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -3584,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
         <v>4</v>
       </c>
       <c r="H31">
-        <v>119239</v>
+        <v>113268</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3602,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
@@ -3614,13 +3614,13 @@
         <v>3</v>
       </c>
       <c r="P31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
         <v>6</v>
       </c>
       <c r="R31">
-        <v>133262</v>
+        <v>127818</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
@@ -3630,19 +3630,19 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>14023</v>
+        <v>14550</v>
       </c>
       <c r="W31">
         <f>U45</f>
-        <v>14065.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15302.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -3654,13 +3654,13 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
       </c>
       <c r="H32">
-        <v>135274</v>
+        <v>129821</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
@@ -3684,13 +3684,13 @@
         <v>3</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q32" t="s">
         <v>6</v>
       </c>
       <c r="R32">
-        <v>149752</v>
+        <v>143713</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3700,19 +3700,19 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>14478</v>
+        <v>13892</v>
       </c>
       <c r="W32">
         <f>U56</f>
-        <v>13388.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14447.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -3724,13 +3724,13 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
         <v>4</v>
       </c>
       <c r="H33">
-        <v>151755</v>
+        <v>145716</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
@@ -3754,13 +3754,13 @@
         <v>3</v>
       </c>
       <c r="P33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q33" t="s">
         <v>6</v>
       </c>
       <c r="R33">
-        <v>166305</v>
+        <v>159716</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3770,14 +3770,14 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>14550</v>
+        <v>14000</v>
       </c>
       <c r="W33">
         <f>U67</f>
-        <v>12248.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11179.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3804,15 +3804,15 @@
       </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13969.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -3830,7 +3830,7 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3842,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
         <v>11</v>
@@ -3860,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>14512</v>
+        <v>15440</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
@@ -3870,99 +3870,99 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>12509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>480</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>15441</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>51</v>
+      </c>
+      <c r="M36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>16520</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>2047</v>
-      </c>
-      <c r="K36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>480</v>
-      </c>
-      <c r="M36" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36" t="s">
         <v>3</v>
       </c>
       <c r="P36">
+        <v>-1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>40441</v>
+      </c>
+      <c r="S36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
-      <c r="Q36" t="s">
-        <v>6</v>
-      </c>
-      <c r="R36">
-        <v>29114</v>
-      </c>
-      <c r="S36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36">
-        <v>2047</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="0"/>
-        <v>12594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>195</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
       <c r="G37" t="s">
         <v>4</v>
       </c>
       <c r="H37">
-        <v>31113</v>
+        <v>42447</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s">
         <v>11</v>
@@ -3986,13 +3986,13 @@
         <v>3</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="s">
         <v>6</v>
       </c>
       <c r="R37">
-        <v>43383</v>
+        <v>55000</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
@@ -4002,279 +4002,279 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>12270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
-        <v>386</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>56995</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>2047</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>153</v>
+      </c>
+      <c r="M38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>69827</v>
+      </c>
+      <c r="S38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38">
+        <v>2047</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>12832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>71831</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>2047</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>204</v>
+      </c>
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>84831</v>
+      </c>
+      <c r="S39" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>2047</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>255</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>86835</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>2047</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>99345</v>
+      </c>
+      <c r="S40" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>2047</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38">
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
         <v>-1</v>
       </c>
-      <c r="G38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38">
-        <v>43384</v>
-      </c>
-      <c r="I38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>386</v>
-      </c>
-      <c r="M38" t="s">
-        <v>11</v>
-      </c>
-      <c r="N38">
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>99346</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>306</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38">
+      <c r="O41" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41">
         <v>-1</v>
       </c>
-      <c r="Q38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38">
-        <v>63384</v>
-      </c>
-      <c r="S38" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>471</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>-1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <v>63385</v>
-      </c>
-      <c r="I39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>471</v>
-      </c>
-      <c r="M39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>-1</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39">
-        <v>83385</v>
-      </c>
-      <c r="S39" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>310</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>85393</v>
-      </c>
-      <c r="I40" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40">
-        <v>2047</v>
-      </c>
-      <c r="K40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>310</v>
-      </c>
-      <c r="M40" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40">
-        <v>97907</v>
-      </c>
-      <c r="S40" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40">
-        <v>2047</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="0"/>
-        <v>12514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>99906</v>
-      </c>
-      <c r="I41" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41">
-        <v>2047</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
       <c r="Q41" t="s">
         <v>6</v>
       </c>
       <c r="R41">
-        <v>112391</v>
+        <v>124346</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
       </c>
       <c r="T41">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>12485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -4292,7 +4292,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>114392</v>
+        <v>126345</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
@@ -4322,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>127358</v>
+        <v>139336</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4332,15 +4332,15 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>12966</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -4358,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>129358</v>
+        <v>141340</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4370,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
@@ -4388,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>142051</v>
+        <v>153911</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4398,15 +4398,15 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>12693</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>237</v>
+        <v>459</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -4424,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>144046</v>
+        <v>155916</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4436,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>237</v>
+        <v>459</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
@@ -4454,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>156670</v>
+        <v>169059</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4464,10 +4464,10 @@
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>12624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -4494,543 +4494,543 @@
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>14065.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15302.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>2032</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2047</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>11</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>13690</v>
+      </c>
+      <c r="S46" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>2047</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>11658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46">
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>15698</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>2047</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>51</v>
+      </c>
+      <c r="M47" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>27687</v>
+      </c>
+      <c r="S47" t="s">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>2047</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>11989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>29686</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>2047</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>102</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>41411</v>
+      </c>
+      <c r="S48" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>2047</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>11725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49">
         <v>-1</v>
       </c>
-      <c r="G46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>85</v>
-      </c>
-      <c r="M46" t="s">
-        <v>11</v>
-      </c>
-      <c r="N46">
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>41412</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>153</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49">
         <v>1</v>
       </c>
-      <c r="O46" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46">
+      <c r="O49" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49">
         <v>-1</v>
       </c>
-      <c r="Q46" t="s">
-        <v>6</v>
-      </c>
-      <c r="R46">
-        <v>20000</v>
-      </c>
-      <c r="S46" t="s">
-        <v>7</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>21999</v>
-      </c>
-      <c r="I47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>2047</v>
-      </c>
-      <c r="K47" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>82</v>
-      </c>
-      <c r="M47" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>6</v>
-      </c>
-      <c r="R47">
-        <v>33487</v>
-      </c>
-      <c r="S47" t="s">
-        <v>7</v>
-      </c>
-      <c r="T47">
-        <v>2047</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="0"/>
-        <v>11488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
+      <c r="Q49" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>66412</v>
+      </c>
+      <c r="S49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>68414</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>2047</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>204</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>80240</v>
+      </c>
+      <c r="S50" t="s">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>2047</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>11826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>82237</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>2047</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>94315</v>
+      </c>
+      <c r="S51" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51">
+        <v>2047</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>306</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>96321</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2047</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>306</v>
+      </c>
+      <c r="M52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>108337</v>
+      </c>
+      <c r="S52" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>2047</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>357</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48">
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53">
         <v>-1</v>
       </c>
-      <c r="G48" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <v>33488</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>165</v>
-      </c>
-      <c r="M48" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48">
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>108338</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>357</v>
+      </c>
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53">
         <v>1</v>
       </c>
-      <c r="O48" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48">
+      <c r="O53" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53">
         <v>-1</v>
       </c>
-      <c r="Q48" t="s">
-        <v>6</v>
-      </c>
-      <c r="R48">
-        <v>53488</v>
-      </c>
-      <c r="S48" t="s">
-        <v>7</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>55490</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>2047</v>
-      </c>
-      <c r="K49" t="s">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>7</v>
-      </c>
-      <c r="M49" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>6</v>
-      </c>
-      <c r="R49">
-        <v>67771</v>
-      </c>
-      <c r="S49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T49">
-        <v>2047</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="0"/>
-        <v>12281</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>418</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>69769</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>2047</v>
-      </c>
-      <c r="K50" t="s">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>418</v>
-      </c>
-      <c r="M50" t="s">
-        <v>11</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>2</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>6</v>
-      </c>
-      <c r="R50">
-        <v>81579</v>
-      </c>
-      <c r="S50" t="s">
-        <v>7</v>
-      </c>
-      <c r="T50">
-        <v>2047</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="0"/>
-        <v>11810</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>455</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <v>83568</v>
-      </c>
-      <c r="I51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <v>2047</v>
-      </c>
-      <c r="K51" t="s">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>455</v>
-      </c>
-      <c r="M51" t="s">
-        <v>11</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>6</v>
-      </c>
-      <c r="R51">
-        <v>95308</v>
-      </c>
-      <c r="S51" t="s">
-        <v>7</v>
-      </c>
-      <c r="T51">
-        <v>2047</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="0"/>
-        <v>11740</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>256</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52">
-        <v>97302</v>
-      </c>
-      <c r="I52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52">
-        <v>2047</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>256</v>
-      </c>
-      <c r="M52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>6</v>
-      </c>
-      <c r="R52">
-        <v>108525</v>
-      </c>
-      <c r="S52" t="s">
-        <v>7</v>
-      </c>
-      <c r="T52">
-        <v>2047</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="0"/>
-        <v>11223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>366</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>110539</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53">
-        <v>2047</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>366</v>
-      </c>
-      <c r="M53" t="s">
-        <v>11</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>3</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
       <c r="Q53" t="s">
         <v>6</v>
       </c>
       <c r="R53">
-        <v>122578</v>
+        <v>133338</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
       </c>
       <c r="T53">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>12039</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -5048,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>124572</v>
+        <v>135325</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5060,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
@@ -5078,7 +5078,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>136120</v>
+        <v>147102</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5088,15 +5088,15 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>11548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>138120</v>
+        <v>149118</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5126,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
@@ -5144,7 +5144,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>149873</v>
+        <v>160527</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5154,10 +5154,10 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>11753</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -5184,15 +5184,15 @@
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>13388.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+        <v>14447.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -5210,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>2003</v>
+        <v>2024</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5222,7 +5222,7 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>13199</v>
+        <v>12429</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
@@ -5250,15 +5250,15 @@
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>11196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -5276,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>15204</v>
+        <v>14441</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="L58">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
@@ -5306,7 +5306,7 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>26709</v>
+        <v>26177</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
@@ -5316,15 +5316,15 @@
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>11505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -5342,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>28715</v>
+        <v>28176</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5354,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
@@ -5372,7 +5372,7 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>40236</v>
+        <v>38757</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
@@ -5382,15 +5382,15 @@
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>11521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -5408,7 +5408,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>42230</v>
+        <v>40760</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5420,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="M60" t="s">
         <v>11</v>
@@ -5438,7 +5438,7 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>53777</v>
+        <v>52120</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
@@ -5448,15 +5448,15 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>11547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -5474,7 +5474,7 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>55785</v>
+        <v>54130</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
@@ -5486,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
@@ -5504,7 +5504,7 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>66715</v>
+        <v>65156</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
@@ -5514,15 +5514,15 @@
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>10930</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11026</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -5540,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>68719</v>
+        <v>67157</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5552,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
@@ -5570,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>80708</v>
+        <v>78517</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5580,15 +5580,15 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>11989</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5606,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>82698</v>
+        <v>80522</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5618,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
@@ -5636,7 +5636,7 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>94072</v>
+        <v>91895</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -5646,81 +5646,81 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>11374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
       </c>
       <c r="F64">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
         <v>4</v>
       </c>
       <c r="H64">
-        <v>94073</v>
+        <v>93905</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K64" t="s">
         <v>2</v>
       </c>
       <c r="L64">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="s">
         <v>3</v>
       </c>
       <c r="P64">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q64" t="s">
         <v>6</v>
       </c>
       <c r="R64">
-        <v>114073</v>
+        <v>105390</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>150</v>
+        <v>408</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -5732,13 +5732,13 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
         <v>4</v>
       </c>
       <c r="H65">
-        <v>116077</v>
+        <v>107391</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5750,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>150</v>
+        <v>408</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
@@ -5762,13 +5762,13 @@
         <v>3</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q65" t="s">
         <v>6</v>
       </c>
       <c r="R65">
-        <v>127359</v>
+        <v>118845</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5778,15 +5778,15 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>11282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -5798,13 +5798,13 @@
         <v>3</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
         <v>4</v>
       </c>
       <c r="H66">
-        <v>129359</v>
+        <v>120853</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5816,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
@@ -5828,13 +5828,13 @@
         <v>3</v>
       </c>
       <c r="P66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q66" t="s">
         <v>6</v>
       </c>
       <c r="R66">
-        <v>140503</v>
+        <v>131864</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5844,13 +5844,13 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>11144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>12248.8</v>
+        <v>11179.1</v>
       </c>
     </row>
   </sheetData>
@@ -5867,14 +5867,14 @@
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5885,79 +5885,79 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>18553.5</v>
+        <v>18323</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.92767500000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91615000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>15643.2</v>
+        <v>17064.5</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C12" si="0">B3*50/1000000</f>
-        <v>0.78215999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.85322500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>14830</v>
+        <v>13969.7</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.74150000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.69848500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>14065.5</v>
+        <v>15302.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.70327499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.76512500000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>13388.2</v>
+        <v>14447.8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.66940999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.72238999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>12248.8</v>
+        <v>11179.1</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.61243999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.55895499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>25000</v>
       </c>
@@ -6028,12 +6028,12 @@
       <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>256</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>512</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>7244</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>768</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>7562</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1024</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>7814</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1280</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>7935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1536</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>8195</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1792</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>8237</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2048</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2304</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2560</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>8364</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2816</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>8274</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3072</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>8340</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3328</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>8599</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3584</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>8561</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3840</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>8645</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4096</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4352</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4608</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>8531</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4864</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>8721</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5120</v>
       </c>
